--- a/Artefatos_IHC/Artefatos_Coletivos/HeuristicaGrupo.xlsx
+++ b/Artefatos_IHC/Artefatos_Coletivos/HeuristicaGrupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculdade\BCC\DevUtilities\Pages\HTML\IHC-Project\Artefatos_IHC\Artefatos_Coletivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF41E3-5F1C-4919-B36D-23684D249A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221754B0-8B21-4D48-A8C8-0DF91D11EDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -377,6 +377,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -385,15 +391,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -616,8 +634,8 @@
   </sheetPr>
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -631,37 +649,37 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
@@ -673,275 +691,259 @@
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+    <row r="18" spans="1:3">
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C19" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+    <row r="20" spans="1:3">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C25" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
+    <row r="26" spans="1:3">
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="9" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3"/>
-    <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="6"/>
@@ -5769,10 +5771,18 @@
       <c r="C1001" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
